--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2446623.169268104</v>
+        <v>2573141.157953899</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004886</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5519958.681307669</v>
+        <v>5901964.533465326</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -665,16 +667,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>5.350890353538425</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.0676845728945</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>128.934269810434</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.19402712855921</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -908,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>238.6470411135271</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>14.94721823158767</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1069,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>107.0820208068356</v>
+        <v>88.76900695998535</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>411.3166734717966</v>
       </c>
       <c r="E8" t="n">
-        <v>101.8349209331015</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>49.68625292119561</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>6.13287386842549</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1351,7 +1353,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396353</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>145.9050270475176</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1543,7 +1545,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>69.83767438079015</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>75.18437071190202</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>115.1444940670235</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>129.2398067845343</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>264.6438182479805</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1853,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.4755279372313</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2011,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>64.04161454920718</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2093,7 +2095,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2141,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2245,7 +2247,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>159.5483568669451</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>12.78161372714869</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2299,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>33.30824845179885</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>222.7182166795858</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>255.1659571616774</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.7884271372686</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>144.6756734312775</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3187,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>157.7482862091258</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>121.2482518332239</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>51.58543740429414</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>214.8202090904856</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3487,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3661,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.5261784198193</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.23577078710668</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3721,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>191.9087778335277</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>148.0086458060447</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>141.764878567064</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>56.71161987520183</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4037,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>71.29664687349138</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4192,16 +4194,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>212.331481843866</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.9701437626245</v>
+        <v>427.1083098721571</v>
       </c>
       <c r="C2" t="n">
-        <v>511.1098178163286</v>
+        <v>404.2479839258613</v>
       </c>
       <c r="D2" t="n">
-        <v>491.857601041733</v>
+        <v>384.9957671512656</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>363.0592313395272</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>341.9754535693315</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>380.7336570066845</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>859.6725812491127</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>1338.611505491541</v>
       </c>
       <c r="N2" t="n">
-        <v>1145.829295018124</v>
+        <v>1338.611505491541</v>
       </c>
       <c r="O2" t="n">
-        <v>1696.494830002562</v>
+        <v>1338.611505491541</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>2167.26712663117</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>2167.26712663117</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>2167.26712663117</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="V2" t="n">
-        <v>2167.26712663117</v>
+        <v>1252.324484659895</v>
       </c>
       <c r="W2" t="n">
-        <v>1770.875776931517</v>
+        <v>855.9331349602414</v>
       </c>
       <c r="X2" t="n">
-        <v>1359.155778099264</v>
+        <v>444.2131361279887</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.8185080541546</v>
+        <v>442.916270123283</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336857</v>
+        <v>517.6410595347456</v>
       </c>
       <c r="L3" t="n">
-        <v>1145.829295018124</v>
+        <v>517.6410595347456</v>
       </c>
       <c r="M3" t="n">
-        <v>1307.021068682275</v>
+        <v>517.6410595347456</v>
       </c>
       <c r="N3" t="n">
-        <v>1307.021068682275</v>
+        <v>996.5799837771738</v>
       </c>
       <c r="O3" t="n">
-        <v>1307.021068682275</v>
+        <v>996.5799837771738</v>
       </c>
       <c r="P3" t="n">
-        <v>1307.021068682275</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.9200589091701</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="C4" t="n">
-        <v>494.9200589091701</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="D4" t="n">
-        <v>454.3200315065851</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="E4" t="n">
-        <v>454.3200315065851</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>165.7127968734999</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>520.4021181679207</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>911.5879131381714</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1289.079424014207</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1644.50755269397</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1474.59375604808</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1194.409307548384</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>912.6978401564129</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>637.8454363289259</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>395.281539774731</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.0860276212358</v>
+        <v>168.938771464473</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>774.7291026788682</v>
+        <v>1780.988227140365</v>
       </c>
       <c r="C5" t="n">
-        <v>751.8687767325724</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>732.6165599579767</v>
+        <v>930.7948763386657</v>
       </c>
       <c r="E5" t="n">
-        <v>306.6396201058343</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>285.5558423356386</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4568,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>455.3583126271592</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1006.023847611597</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4595,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="W5" t="n">
-        <v>1607.594331807357</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="X5" t="n">
-        <v>1195.874332975104</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y5" t="n">
-        <v>790.5370629299942</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>287.7093087981016</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>287.7093087981016</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>992.2781682025568</v>
+        <v>738.2594066832703</v>
       </c>
       <c r="C7" t="n">
-        <v>820.3056050814728</v>
+        <v>738.2594066832703</v>
       </c>
       <c r="D7" t="n">
-        <v>656.9888322082435</v>
+        <v>738.2594066832703</v>
       </c>
       <c r="E7" t="n">
-        <v>490.780626361097</v>
+        <v>572.0512008361238</v>
       </c>
       <c r="F7" t="n">
-        <v>318.9188521356574</v>
+        <v>400.1894266106842</v>
       </c>
       <c r="G7" t="n">
-        <v>152.6618824298895</v>
+        <v>233.9324569049164</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4735,40 +4737,40 @@
         <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688275</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U7" t="n">
-        <v>1981.571904688275</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.860437296304</v>
+        <v>1445.841675777018</v>
       </c>
       <c r="W7" t="n">
-        <v>1425.008033468817</v>
+        <v>1170.989271949531</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.444136914623</v>
+        <v>928.4253753953359</v>
       </c>
       <c r="Y7" t="n">
-        <v>1182.444136914623</v>
+        <v>928.4253753953359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1720.846351055742</v>
+        <v>526.1489102928739</v>
       </c>
       <c r="C8" t="n">
-        <v>1293.945621069042</v>
+        <v>503.2885843465781</v>
       </c>
       <c r="D8" t="n">
-        <v>1274.693404294446</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.829847796364</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4805,49 +4807,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1745.630772103422</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W8" t="n">
-        <v>1745.630772103422</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X8" t="n">
-        <v>1737.951177311573</v>
+        <v>1351.334544629514</v>
       </c>
       <c r="Y8" t="n">
-        <v>1736.654311306868</v>
+        <v>945.997274584404</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>602.6104029955975</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M9" t="n">
-        <v>1153.275937980036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>1153.275937980036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>590.4683077392251</v>
+        <v>479.5561293032848</v>
       </c>
       <c r="C10" t="n">
-        <v>590.4683077392251</v>
+        <v>307.5835661822009</v>
       </c>
       <c r="D10" t="n">
-        <v>427.1515348659958</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E10" t="n">
-        <v>260.9433290188493</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F10" t="n">
-        <v>260.9433290188493</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
-        <v>94.68635931308148</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4987,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2218.716430373057</v>
       </c>
       <c r="T10" t="n">
-        <v>1811.43685720741</v>
+        <v>1975.377082598957</v>
       </c>
       <c r="U10" t="n">
-        <v>1531.252408707715</v>
+        <v>1695.192634099261</v>
       </c>
       <c r="V10" t="n">
-        <v>1249.540941315744</v>
+        <v>1413.48116670729</v>
       </c>
       <c r="W10" t="n">
-        <v>1249.540941315744</v>
+        <v>1138.628762879803</v>
       </c>
       <c r="X10" t="n">
-        <v>1006.977044761549</v>
+        <v>896.0648663256084</v>
       </c>
       <c r="Y10" t="n">
-        <v>780.6342764512907</v>
+        <v>669.7220980153504</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2503.08093515428</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2076.18020516758</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.88758435258</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898377</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792862</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679213</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>780.1904584722912</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M11" t="n">
-        <v>1151.74481889779</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>1151.74481889779</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>1952.186431295593</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>2660.46571045352</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957704</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712747</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.81465975738</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353793</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2650.459750353793</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2503.08093515428</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2503.08093515428</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2503.08093515428</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679213</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>64.68215049679213</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N12" t="n">
-        <v>64.68215049679213</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>865.1237628945947</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1048.094704761305</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C13" t="n">
-        <v>876.122141640221</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D13" t="n">
-        <v>712.8053687669917</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E13" t="n">
-        <v>546.5971629198452</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F13" t="n">
-        <v>374.7353886944056</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>208.4784189886377</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669157</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.095177909919</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.095177909919</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2074.960130429054</v>
+        <v>2212.172635383815</v>
       </c>
       <c r="T13" t="n">
-        <v>1831.620782654953</v>
+        <v>1968.833287609715</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.676973855052</v>
+        <v>1688.64883911002</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.676973855052</v>
+        <v>1406.937371718049</v>
       </c>
       <c r="W13" t="n">
-        <v>1480.824570027565</v>
+        <v>1132.084967890562</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.260673473371</v>
+        <v>1132.084967890562</v>
       </c>
       <c r="Y13" t="n">
-        <v>1238.260673473371</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1754.175631399727</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1327.274901413027</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>903.9822805980275</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>787.6747108333573</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>362.5505290227574</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136877</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>1142.793917289187</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L14" t="n">
-        <v>1515.667965162099</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M14" t="n">
-        <v>2316.109577559902</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N14" t="n">
-        <v>3116.551189957705</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957705</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2975.75261543602</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2975.75261543602</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2579.361265736367</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2579.361265736367</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2174.023995691257</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>865.1237628945952</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N15" t="n">
-        <v>1157.172064038804</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1157.172064038804</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>712.8053687669917</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C16" t="n">
-        <v>712.8053687669917</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D16" t="n">
-        <v>712.8053687669917</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E16" t="n">
-        <v>546.5971629198452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>374.7353886944056</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>208.4784189886378</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267854</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212062</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191457</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067493</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747256</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669157</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.095177909919</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116227</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342127</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842431</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>1222.68625345046</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>955.3692653211866</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X16" t="n">
-        <v>712.8053687669917</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y16" t="n">
-        <v>712.8053687669917</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,19 +5518,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>1852.677416841655</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>2856.963518260713</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N17" t="n">
-        <v>3833.214576747414</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5552,13 +5554,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5594,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>374.0002026854196</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>747.5965237391339</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5683,40 +5685,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.68826997653</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656293</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578194</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506129</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.677127506129</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2235.677127506129</v>
+        <v>2000.853580480611</v>
       </c>
       <c r="U19" t="n">
-        <v>2235.677127506129</v>
+        <v>1720.669131980916</v>
       </c>
       <c r="V19" t="n">
-        <v>1953.965660114158</v>
+        <v>1438.957664588944</v>
       </c>
       <c r="W19" t="n">
-        <v>1679.113256286671</v>
+        <v>1164.105260761457</v>
       </c>
       <c r="X19" t="n">
-        <v>1436.549359732476</v>
+        <v>1164.105260761457</v>
       </c>
       <c r="Y19" t="n">
-        <v>1210.206591422218</v>
+        <v>937.7624924511995</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5753,25 +5755,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5789,13 +5791,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5837,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1008.573812288737</v>
+        <v>603.8490191059097</v>
       </c>
       <c r="C22" t="n">
-        <v>836.6012491676531</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="D22" t="n">
-        <v>673.2844762944238</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E22" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5929,31 +5931,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338096</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>2099.669972401582</v>
       </c>
       <c r="U22" t="n">
-        <v>1759.191944545161</v>
+        <v>1819.485523901886</v>
       </c>
       <c r="V22" t="n">
-        <v>1477.48047715319</v>
+        <v>1537.774056509915</v>
       </c>
       <c r="W22" t="n">
-        <v>1477.48047715319</v>
+        <v>1262.921652682428</v>
       </c>
       <c r="X22" t="n">
-        <v>1234.916580598995</v>
+        <v>1020.357756128233</v>
       </c>
       <c r="Y22" t="n">
-        <v>1008.573812288737</v>
+        <v>794.0149878179755</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3585.670021589897</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C25" t="n">
-        <v>3413.697458468813</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D25" t="n">
-        <v>3250.380685595584</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>3250.380685595584</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>3078.518911370144</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>5081.49097488557</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>4801.306526385874</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>4519.595058993903</v>
+        <v>1487.185435596389</v>
       </c>
       <c r="W25" t="n">
-        <v>4244.742655166416</v>
+        <v>1212.333031768902</v>
       </c>
       <c r="X25" t="n">
-        <v>4002.178758612221</v>
+        <v>1212.333031768902</v>
       </c>
       <c r="Y25" t="n">
-        <v>3775.835990301963</v>
+        <v>1212.333031768902</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6229,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>345.8675501573982</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C28" t="n">
-        <v>345.8675501573982</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D28" t="n">
-        <v>345.8675501573982</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E28" t="n">
-        <v>345.8675501573982</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
-        <v>345.8675501573982</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y28" t="n">
-        <v>536.0335188694639</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="29">
@@ -6473,16 +6475,16 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>3853.987571074899</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>3682.015007953815</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>3518.698235080586</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>3352.49002923344</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>3180.628255008</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>4787.912608478905</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>4787.912608478905</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>4513.060204651418</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>4270.496308097223</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>4044.153539786965</v>
       </c>
     </row>
     <row r="32">
@@ -6710,13 +6712,13 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478504</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>599.7631605785773</v>
+        <v>374.0438447866366</v>
       </c>
       <c r="C34" t="n">
-        <v>599.7631605785773</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D34" t="n">
-        <v>599.7631605785773</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2113.204145856409</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1869.864798082309</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1589.680349582613</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1307.968882190642</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1033.116478363155</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>790.5525818089602</v>
       </c>
       <c r="Y34" t="n">
-        <v>789.9291292906429</v>
+        <v>564.2098134987023</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M35" t="n">
-        <v>3105.626261478505</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478505</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629317</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787245</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291428</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291428</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F36" t="n">
-        <v>249.732578425915</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058286</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058286</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058286</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058286</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058286</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S36" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T36" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U36" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V36" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W36" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X36" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>3707.899291063543</v>
       </c>
       <c r="C37" t="n">
-        <v>154.4092158344085</v>
+        <v>3535.926727942459</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058286</v>
+        <v>3372.60995506923</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058286</v>
+        <v>3372.60995506923</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058286</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058286</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058286</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058286</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302446</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>4680.971899305326</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>4399.260431913354</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>4124.408028085867</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>4124.408028085867</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>3898.065259775609</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7260,7 +7262,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>850.1944999357521</v>
+        <v>769.8982080594424</v>
       </c>
       <c r="C40" t="n">
-        <v>850.1944999357521</v>
+        <v>597.9256449383583</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2242.073548104708</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2071.938500623843</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1828.599152849742</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1548.414704350047</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.703236958076</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1266.703236958076</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>1266.703236958076</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>1040.360468647818</v>
+        <v>960.064176771508</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1210.967331648357</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1210.967331648357</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>787.674710833357</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>787.674710833357</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>362.5505290227573</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227573</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136876</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>427.2856093136876</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L41" t="n">
-        <v>1227.727221711491</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M41" t="n">
-        <v>2028.168834109293</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N41" t="n">
-        <v>2028.168834109293</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O41" t="n">
-        <v>2525.82824568168</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3040.260274502711</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>2781.905365099123</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.415950225372</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2028.024600525719</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>1616.304601693466</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1210.967331648357</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>272.4865562816963</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>272.4865562816963</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.928168679499</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N42" t="n">
-        <v>1873.369781077302</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.9470786933925</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="C43" t="n">
-        <v>811.9745155723085</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="D43" t="n">
-        <v>668.7776685348701</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E43" t="n">
-        <v>502.5694626877237</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F43" t="n">
-        <v>330.7076884622841</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G43" t="n">
-        <v>164.4507187565162</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2198.056564597094</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1917.872116097398</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V43" t="n">
-        <v>1917.872116097398</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W43" t="n">
-        <v>1643.019712269911</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X43" t="n">
-        <v>1400.455815715716</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y43" t="n">
-        <v>1174.113047405458</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2044.891443082751</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1617.990713096051</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.990713096051</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1192.013773243908</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>766.8895914333086</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227573</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1142.793917289187</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1151.744818897791</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>1952.186431295594</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>1952.186431295594</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>2660.465710453521</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712748</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3072.455766192342</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>2814.100856788754</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2456.611441915004</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2456.611441915004</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2044.891443082751</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2044.891443082751</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>336.3796397763832</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K45" t="n">
-        <v>608.7826918167198</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L45" t="n">
-        <v>1409.224304214523</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M45" t="n">
-        <v>1409.224304214523</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N45" t="n">
-        <v>1409.224304214523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O45" t="n">
-        <v>1409.224304214523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P45" t="n">
-        <v>1409.224304214523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>715.6295292083906</v>
+        <v>850.3052888313966</v>
       </c>
       <c r="C46" t="n">
-        <v>543.6569660873066</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="D46" t="n">
-        <v>380.3401932140773</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E46" t="n">
-        <v>380.3401932140773</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F46" t="n">
-        <v>208.4784189886378</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>208.4784189886378</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68215049679215</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2173.078362886192</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1929.739015112092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1649.554566612396</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1649.554566612396</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1374.702162784909</v>
+        <v>1092.869185385591</v>
       </c>
       <c r="X46" t="n">
-        <v>1132.138266230714</v>
+        <v>850.3052888313966</v>
       </c>
       <c r="Y46" t="n">
-        <v>905.7954979204562</v>
+        <v>850.3052888313966</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>381.2509863648771</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>522.0887335865908</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>521.2079540533997</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>452.5855512828693</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8058,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>506.1759249873012</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>185.9167539104601</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675096</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>412.3408464905601</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.258252009462</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8295,25 +8297,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>268.7645418748068</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8383,7 +8385,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160406</v>
+        <v>402.0534574160413</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8453,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>181.710741931019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,25 +8528,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9237914043267</v>
+        <v>98.59786501766862</v>
       </c>
       <c r="P9" t="n">
         <v>577.9986543204228</v>
@@ -8553,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8696,13 +8698,13 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>412.738697672663</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659256</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8772,22 +8774,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>831.6987709321238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>571.3673475885942</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>726.5568076874005</v>
       </c>
       <c r="L14" t="n">
-        <v>414.9524948295044</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9012,16 +9014,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222301</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>316.3413121975909</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9164,10 +9166,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>717.3655137896245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9176,10 +9178,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>362.1014486857561</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9240,7 +9242,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9249,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>675.3923850715689</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9401,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>224.6533223166459</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9638,13 +9640,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9656,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -10121,7 +10123,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>855.4509062314407</v>
+        <v>736.7071336234585</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10133,7 +10135,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10358,7 +10360,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>394.7585026918616</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10586,16 +10588,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>1043.074428213579</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10607,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10908,10 +10910,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>540.0772336715659</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>728.3675687028222</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>232.3026740201052</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11300,22 +11302,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>46.47257765559747</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11373,19 +11375,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>297.5538318538753</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11394,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>246.522409155139</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23464,22 +23466,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>98.59602262526634</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>202.1982333027967</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>306.5726763865975</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396353</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>59.02450224041067</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>7.460061541231596</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.7887810877137</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>176.8643397471518</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4.997766921729891</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>228.1243405692103</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>207.5977058445602</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>56.17613603846556</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>16.9379226275347</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.29091348988675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>19.91872657743264</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>6.797837579549139</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>47.18544517283263</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>110.0981677402029</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>62.56239492421315</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0.1574267246777197</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.332456392591901</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.80753741228551</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>40.25566321890028</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>19.91872657743301</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>162.0046953706114</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>97.13705013256511</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>59.77239794534606</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>375086.2608024713</v>
+        <v>505827.3628237025</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>375086.2608024713</v>
+        <v>505827.3628237024</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237026</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237026</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237026</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237026</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237026</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>375086.2608024714</v>
+        <v>505827.3628237025</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>375086.2608024714</v>
+        <v>505827.3628237024</v>
       </c>
     </row>
   </sheetData>
@@ -26317,25 +26319,25 @@
         <v>495076.2678094889</v>
       </c>
       <c r="D2" t="n">
-        <v>495076.2678094887</v>
+        <v>495076.2678094888</v>
       </c>
       <c r="E2" t="n">
-        <v>354248.1352023339</v>
+        <v>477725.8426668306</v>
       </c>
       <c r="F2" t="n">
-        <v>354248.1352023341</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="G2" t="n">
-        <v>477725.8426668302</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="H2" t="n">
-        <v>477725.8426668303</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="I2" t="n">
         <v>477725.8426668303</v>
       </c>
       <c r="J2" t="n">
-        <v>477725.8426668303</v>
+        <v>477725.84266683</v>
       </c>
       <c r="K2" t="n">
         <v>477725.8426668303</v>
@@ -26347,13 +26349,13 @@
         <v>477725.8426668304</v>
       </c>
       <c r="N2" t="n">
-        <v>477725.8426668304</v>
+        <v>477725.8426668301</v>
       </c>
       <c r="O2" t="n">
-        <v>354248.135202334</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="P2" t="n">
-        <v>354248.135202334</v>
+        <v>477725.8426668305</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346211</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537386</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139507.7493322929</v>
+        <v>156089.0640777231</v>
       </c>
       <c r="C4" t="n">
         <v>139507.7493322929</v>
@@ -26424,40 +26426,40 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7341333214915</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="F4" t="n">
-        <v>577.7341333214918</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433184</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433284</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="J4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="M4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="O4" t="n">
-        <v>577.7341333215405</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="P4" t="n">
-        <v>577.7341333215405</v>
+        <v>800.060259943367</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.0621884297</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101717.5340250305</v>
+        <v>113821.2848400132</v>
       </c>
       <c r="C6" t="n">
-        <v>288122.2674397678</v>
+        <v>264715.4337661556</v>
       </c>
       <c r="D6" t="n">
-        <v>288122.2674397676</v>
+        <v>288122.2674397677</v>
       </c>
       <c r="E6" t="n">
-        <v>229181.0155379883</v>
+        <v>183436.3636618169</v>
       </c>
       <c r="F6" t="n">
-        <v>304511.9666914504</v>
+        <v>399175.7202184573</v>
       </c>
       <c r="G6" t="n">
-        <v>270285.3204069168</v>
+        <v>399175.7202184572</v>
       </c>
       <c r="H6" t="n">
-        <v>399175.7202184573</v>
+        <v>399175.7202184574</v>
       </c>
       <c r="I6" t="n">
         <v>399175.7202184572</v>
       </c>
       <c r="J6" t="n">
-        <v>253642.0502836408</v>
+        <v>272598.4516381682</v>
       </c>
       <c r="K6" t="n">
+        <v>380529.1198614374</v>
+      </c>
+      <c r="L6" t="n">
         <v>399175.7202184573</v>
       </c>
-      <c r="L6" t="n">
-        <v>399175.7202184572</v>
-      </c>
       <c r="M6" t="n">
-        <v>336301.7832530835</v>
+        <v>219111.8487632897</v>
       </c>
       <c r="N6" t="n">
-        <v>399175.7202184574</v>
+        <v>399175.720218457</v>
       </c>
       <c r="O6" t="n">
-        <v>304511.9666914504</v>
+        <v>399175.7202184575</v>
       </c>
       <c r="P6" t="n">
-        <v>304511.9666914504</v>
+        <v>399175.7202184575</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943077</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>394.9447814329074</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>46.25593661269649</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.330039214511</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>121.4895780159378</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27549,13 +27551,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>161.6486306729187</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>338.9673024934253</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>35.27628500009156</v>
+        <v>53.5892988469418</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
+        <v>7.743021135053084</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>319.8822495205196</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>92.67205288573155</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>162.300823137631</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28287,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.043262111230654e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-3.047370784833188e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28509,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.043262111230654e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28582,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-8.313350008393172e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28752,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-8.020679905680953e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>345.4863855700677</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>415.010189472638</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>162.8199733981321</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>390.5700052857314</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.29359755675</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>245.6677613624788</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404409</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35173,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>150.7519016821045</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="P9" t="n">
         <v>556.2278131155941</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35416,13 +35418,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>375.3074347732312</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>549.5965063837655</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35583,7 +35585,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968676</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
         <v>128.2829598391535</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>690.7922068925911</v>
       </c>
       <c r="L14" t="n">
-        <v>376.6404523968814</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35732,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099021</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>294.9982839840492</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>228.8157587937729</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35884,10 +35886,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>679.0534713570016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35896,10 +35898,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>324.5260868755248</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>654.0493568580273</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36048,7 +36050,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.1371666366162</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36121,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>188.5286477120479</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391573</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36376,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36841,7 +36843,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>818.1712833969947</v>
+        <v>699.4275107890124</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>357.4788798574156</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37306,16 +37308,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.643165314147</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37327,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>502.6862743155417</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>690.7922068925909</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,22 +38022,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>9.041314756165656</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>275.154598020542</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2573141.157953899</v>
+        <v>2572444.496748808</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>342.759732841496</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -673,10 +673,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>5.350890353538425</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.934269810434</v>
+        <v>71.80078923451099</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>109.4598338872578</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>14.94721823158767</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1071,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>88.76900695998535</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>411.3166734717966</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>6.13287386842549</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1533,7 +1533,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1542,10 +1542,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>69.83767438079015</v>
+        <v>30.44572980762073</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.2398067845343</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>152.0898487279661</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924936</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8121020651556</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>64.04161454920718</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2098,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2143,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2244,16 +2244,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>12.78161372714869</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2535,16 +2535,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>222.7182166795858</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>255.1659571616774</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>144.6756734312775</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>121.2482518332239</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>214.8202090904856</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>204.0019611074012</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3666,16 +3666,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.5261784198193</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.0086458060447</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3918,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>149.1427835161697</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>212.331481843866</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>427.1083098721571</v>
+        <v>447.4952763841419</v>
       </c>
       <c r="C2" t="n">
-        <v>404.2479839258613</v>
+        <v>101.2733240189945</v>
       </c>
       <c r="D2" t="n">
-        <v>384.9957671512656</v>
+        <v>82.02110724439883</v>
       </c>
       <c r="E2" t="n">
-        <v>363.0592313395272</v>
+        <v>60.08457143266044</v>
       </c>
       <c r="F2" t="n">
-        <v>341.9754535693315</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>336.5705138182826</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
         <v>38.70213529231743</v>
@@ -4330,22 +4330,22 @@
         <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231743</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>380.7336570066845</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>859.6725812491127</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.611505491541</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="N2" t="n">
-        <v>1338.611505491541</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="O2" t="n">
-        <v>1338.611505491541</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="P2" t="n">
         <v>1817.550429733969</v>
@@ -4357,25 +4357,25 @@
         <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1609.813899533645</v>
+        <v>1676.751855212284</v>
       </c>
       <c r="V2" t="n">
-        <v>1252.324484659895</v>
+        <v>1676.751855212284</v>
       </c>
       <c r="W2" t="n">
-        <v>855.9331349602414</v>
+        <v>1280.36050551263</v>
       </c>
       <c r="X2" t="n">
-        <v>444.2131361279887</v>
+        <v>1272.680910720782</v>
       </c>
       <c r="Y2" t="n">
-        <v>442.916270123283</v>
+        <v>867.343640675672</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231743</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231743</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="K3" t="n">
-        <v>517.6410595347456</v>
+        <v>525.0877024966574</v>
       </c>
       <c r="L3" t="n">
-        <v>517.6410595347456</v>
+        <v>1004.026626739085</v>
       </c>
       <c r="M3" t="n">
-        <v>517.6410595347456</v>
+        <v>1004.026626739085</v>
       </c>
       <c r="N3" t="n">
-        <v>996.5799837771738</v>
+        <v>1482.965550981514</v>
       </c>
       <c r="O3" t="n">
-        <v>996.5799837771738</v>
+        <v>1482.965550981514</v>
       </c>
       <c r="P3" t="n">
-        <v>1383.244289010048</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.70213529231743</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>38.70213529231743</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>38.70213529231743</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>38.70213529231743</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>38.70213529231743</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>38.70213529231743</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231743</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
         <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231743</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>165.7127968734999</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>520.4021181679207</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>911.5879131381714</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.079424014207</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1644.50755269397</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
         <v>1935.106764615871</v>
@@ -4512,28 +4512,28 @@
         <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303045</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.93310382218</v>
+        <v>1717.933103822179</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.59375604808</v>
+        <v>1474.593756048079</v>
       </c>
       <c r="U4" t="n">
         <v>1194.409307548384</v>
       </c>
       <c r="V4" t="n">
-        <v>912.6978401564129</v>
+        <v>1194.409307548384</v>
       </c>
       <c r="W4" t="n">
-        <v>637.8454363289259</v>
+        <v>1194.409307548384</v>
       </c>
       <c r="X4" t="n">
-        <v>395.281539774731</v>
+        <v>1194.409307548384</v>
       </c>
       <c r="Y4" t="n">
-        <v>168.938771464473</v>
+        <v>1194.409307548384</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.988227140365</v>
+        <v>1029.323819803441</v>
       </c>
       <c r="C5" t="n">
-        <v>1354.087497153665</v>
+        <v>602.4230898167409</v>
       </c>
       <c r="D5" t="n">
-        <v>930.7948763386657</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L5" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M5" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="N5" t="n">
         <v>549.9383681074144</v>
       </c>
-      <c r="L5" t="n">
-        <v>549.9383681074144</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1100.603903091853</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1651.269438076291</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
         <v>1651.269438076291</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>2209.81305222845</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.81305222845</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X5" t="n">
-        <v>1798.093053396197</v>
+        <v>1854.50945414008</v>
       </c>
       <c r="Y5" t="n">
-        <v>1796.796187391491</v>
+        <v>1449.172184094971</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>738.2594066832703</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>738.2594066832703</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>738.2594066832703</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>572.0512008361238</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>400.1894266106842</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>233.9324569049164</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4725,16 +4725,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
         <v>1451.883781619951</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1727.553143168989</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1445.841675777018</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1170.989271949531</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>928.4253753953359</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>928.4253753953359</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>526.1489102928739</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C8" t="n">
-        <v>503.2885843465781</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
         <v>65.88066118959054</v>
@@ -4807,49 +4807,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1218.160237973755</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.160237973755</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1768.825772958194</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="V8" t="n">
-        <v>1763.054543461766</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W8" t="n">
-        <v>1763.054543461766</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X8" t="n">
-        <v>1351.334544629514</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>945.997274584404</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.5561293032848</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>307.5835661822009</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E10" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2218.716430373057</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1975.377082598957</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1695.192634099261</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1413.48116670729</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1138.628762879803</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>896.0648663256084</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>669.7220980153504</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5047,46 +5047,46 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.9189991784958</v>
+        <v>756.1415250913442</v>
       </c>
       <c r="C13" t="n">
-        <v>769.9464360574118</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="D13" t="n">
-        <v>606.6296631841825</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E13" t="n">
-        <v>440.421457337036</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F13" t="n">
-        <v>268.5596831115964</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
         <v>102.3027134058285</v>
@@ -5226,25 +5226,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2212.172635383815</v>
+        <v>2251.962478387017</v>
       </c>
       <c r="T13" t="n">
-        <v>1968.833287609715</v>
+        <v>2251.962478387017</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.64883911002</v>
+        <v>1971.778029887321</v>
       </c>
       <c r="V13" t="n">
-        <v>1406.937371718049</v>
+        <v>1690.06656249535</v>
       </c>
       <c r="W13" t="n">
-        <v>1132.084967890562</v>
+        <v>1415.214158667863</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.084967890562</v>
+        <v>1172.650262113668</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.084967890562</v>
+        <v>946.3074938034099</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5278,28 +5278,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.289251381874</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N15" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>1270.928123658803</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>612.3452565994986</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
         <v>274.1644876312681</v>
@@ -5436,52 +5436,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299896</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L16" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302475</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563995</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064299</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672328</v>
       </c>
       <c r="W16" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844841</v>
       </c>
       <c r="X16" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906461</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5518,25 +5518,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4220.213029898572</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,13 +5551,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.5965237391339</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>575.6239606180499</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D19" t="n">
-        <v>412.3071877448206</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="E19" t="n">
-        <v>246.0989818976742</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="F19" t="n">
-        <v>246.0989818976742</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2000.853580480611</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1720.669131980916</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1438.957664588944</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1164.105260761457</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1164.105260761457</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>937.7624924511995</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5755,22 +5755,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4220.213029898572</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4928.4923090565</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5791,13 +5791,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8490191059097</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8764559848257</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D22" t="n">
-        <v>268.5596831115964</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5931,31 +5931,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338096</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>2099.669972401582</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1819.485523901886</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>1537.774056509915</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>1262.921652682428</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>1020.357756128233</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>794.0149878179755</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="23">
@@ -5989,22 +5989,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1022.167063056836</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1487.185435596389</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1212.333031768902</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1212.333031768902</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1212.333031768902</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1085.715267670341</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>913.7427045492574</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>2002.531292319261</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1744.78790124686</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>1502.224004692665</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>1275.881236382407</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6469,22 +6469,22 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3853.987571074899</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3682.015007953815</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3518.698235080586</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3352.49002923344</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>3180.628255008</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5068.0970569786</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>5068.0970569786</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4787.912608478905</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4787.912608478905</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>4513.060204651418</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>4270.496308097223</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>4044.153539786965</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>374.0438447866366</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2113.204145856409</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.864798082309</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.680349582613</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.968882190642</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1033.116478363155</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>790.5525818089602</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>564.2098134987023</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1007.532766690843</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>4025.820723818557</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N36" t="n">
-        <v>5115.135670291427</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291427</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3707.899291063543</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C37" t="n">
-        <v>3535.926727942459</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D37" t="n">
-        <v>3372.60995506923</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E37" t="n">
-        <v>3372.60995506923</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>3200.748180843791</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4897.962009497735</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>4680.971899305326</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>4399.260431913354</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>4124.408028085867</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X37" t="n">
-        <v>4124.408028085867</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y37" t="n">
-        <v>3898.065259775609</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="38">
@@ -7174,22 +7174,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
         <v>5115.135670291427</v>
@@ -7250,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>769.8982080594424</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>597.9256449383583</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>434.7678889587429</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>960.064176771508</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,28 +7411,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3012.464920930865</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3857.609571081677</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7447,16 +7447,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>939.1015214887346</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M42" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>584.2177258288816</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>584.2177258288816</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>584.2177258288816</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U43" t="n">
-        <v>1759.191944545161</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V43" t="n">
-        <v>1477.48047715319</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.628073325703</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X43" t="n">
-        <v>960.064176771508</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y43" t="n">
-        <v>733.72140846125</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7666,10 +7666,10 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
@@ -7684,16 +7684,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>3306.448039710919</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="L45" t="n">
-        <v>3306.448039710919</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M45" t="n">
-        <v>4025.820723818557</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>850.3052888313966</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C46" t="n">
-        <v>678.3327257103126</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="D46" t="n">
-        <v>678.3327257103126</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="E46" t="n">
-        <v>512.1245198631661</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631661</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="G46" t="n">
         <v>345.8675501573982</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T46" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U46" t="n">
-        <v>1589.056897064296</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V46" t="n">
-        <v>1307.345429672325</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W46" t="n">
-        <v>1092.869185385591</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X46" t="n">
-        <v>850.3052888313966</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y46" t="n">
-        <v>850.3052888313966</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>381.2509863648771</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865908</v>
+        <v>522.0887335865907</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533997</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>500.3879160629933</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873012</v>
+        <v>506.1759249873011</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675096</v>
+        <v>505.1197193675095</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>412.3408464905601</v>
+        <v>307.0283208074654</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>149.258252009462</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>157.3211482065606</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>180.0440798263965</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>579.3245936279221</v>
@@ -8312,13 +8312,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>371.4608596749573</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8385,7 +8385,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160413</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>298.7878524343791</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>98.59786501766862</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8695,10 +8695,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8707,13 +8707,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,10 +8786,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>726.5568076874005</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9014,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>116.6167335079122</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>362.1014486857561</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9251,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>190.532390813586</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9418,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
-        <v>224.6533223166459</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9485,25 +9485,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>124.3756766890881</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9962,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>736.7071336234585</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10135,7 +10135,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>855.4509062314407</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
@@ -10436,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10673,22 +10673,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10922,7 +10922,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>728.3675687028222</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,28 +11135,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11314,13 +11314,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>100.0581876036193</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>500.7395978363249</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>749.7358553685286</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23466,10 +23466,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>98.59602262526634</v>
+        <v>137.9879671984358</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.02450224041067</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>71.98949189918932</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>66.33105441802955</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>176.8643397471518</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24177,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>228.1243405692103</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>56.17613603846556</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,19 +24651,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>16.9379226275347</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>19.91872657743264</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>47.18544517283263</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>62.56239492421315</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>68.1019186818109</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1574267246777197</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.25566321890028</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>15.45161649254044</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>59.77239794534606</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>505827.3628237024</v>
+        <v>505827.3628237025</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>505827.3628237024</v>
+        <v>505827.3628237025</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495076.2678094888</v>
+        <v>495076.2678094886</v>
       </c>
       <c r="C2" t="n">
-        <v>495076.2678094889</v>
+        <v>495076.2678094886</v>
       </c>
       <c r="D2" t="n">
-        <v>495076.2678094888</v>
+        <v>495076.2678094886</v>
       </c>
       <c r="E2" t="n">
-        <v>477725.8426668306</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="F2" t="n">
         <v>477725.8426668303</v>
@@ -26331,31 +26331,31 @@
         <v>477725.8426668303</v>
       </c>
       <c r="H2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="I2" t="n">
         <v>477725.8426668303</v>
       </c>
       <c r="J2" t="n">
-        <v>477725.84266683</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="K2" t="n">
+        <v>477725.8426668301</v>
+      </c>
+      <c r="L2" t="n">
+        <v>477725.8426668302</v>
+      </c>
+      <c r="M2" t="n">
+        <v>477725.8426668301</v>
+      </c>
+      <c r="N2" t="n">
         <v>477725.8426668303</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>477725.8426668303</v>
       </c>
-      <c r="M2" t="n">
-        <v>477725.8426668304</v>
-      </c>
-      <c r="N2" t="n">
-        <v>477725.8426668301</v>
-      </c>
-      <c r="O2" t="n">
-        <v>477725.8426668305</v>
-      </c>
       <c r="P2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668303</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361226</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701983</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156089.0640777231</v>
+        <v>156089.0640777232</v>
       </c>
       <c r="C4" t="n">
         <v>139507.7493322929</v>
@@ -26426,7 +26426,7 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="F4" t="n">
         <v>800.0602599433673</v>
@@ -26435,31 +26435,31 @@
         <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433673</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="I4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="J4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="K4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="L4" t="n">
         <v>800.0602599433672</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="N4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="O4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="P4" t="n">
         <v>800.0602599433672</v>
-      </c>
-      <c r="K4" t="n">
-        <v>800.060259943367</v>
-      </c>
-      <c r="L4" t="n">
-        <v>800.060259943367</v>
-      </c>
-      <c r="M4" t="n">
-        <v>800.0602599433672</v>
-      </c>
-      <c r="N4" t="n">
-        <v>800.0602599433672</v>
-      </c>
-      <c r="O4" t="n">
-        <v>800.0602599433672</v>
-      </c>
-      <c r="P4" t="n">
-        <v>800.060259943367</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113821.2848400132</v>
+        <v>113821.2848400131</v>
       </c>
       <c r="C6" t="n">
-        <v>264715.4337661556</v>
+        <v>264715.4337661553</v>
       </c>
       <c r="D6" t="n">
-        <v>288122.2674397677</v>
+        <v>288122.2674397676</v>
       </c>
       <c r="E6" t="n">
-        <v>183436.3636618169</v>
+        <v>183385.3329996324</v>
       </c>
       <c r="F6" t="n">
-        <v>399175.7202184573</v>
+        <v>399124.689556273</v>
       </c>
       <c r="G6" t="n">
-        <v>399175.7202184572</v>
+        <v>399124.689556273</v>
       </c>
       <c r="H6" t="n">
-        <v>399175.7202184574</v>
+        <v>399124.689556273</v>
       </c>
       <c r="I6" t="n">
-        <v>399175.7202184572</v>
+        <v>399124.6895562729</v>
       </c>
       <c r="J6" t="n">
-        <v>272598.4516381682</v>
+        <v>272547.4209759842</v>
       </c>
       <c r="K6" t="n">
-        <v>380529.1198614374</v>
+        <v>380478.0891992529</v>
       </c>
       <c r="L6" t="n">
-        <v>399175.7202184573</v>
+        <v>399124.6895562729</v>
       </c>
       <c r="M6" t="n">
-        <v>219111.8487632897</v>
+        <v>219060.818101105</v>
       </c>
       <c r="N6" t="n">
-        <v>399175.720218457</v>
+        <v>399124.6895562729</v>
       </c>
       <c r="O6" t="n">
-        <v>399175.7202184575</v>
+        <v>399124.6895562729</v>
       </c>
       <c r="P6" t="n">
-        <v>399175.7202184575</v>
+        <v>399124.6895562729</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27038,7 +27038,7 @@
         <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>79.87198984533688</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>394.9447814329074</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.330039214511</v>
+        <v>116.463519790434</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>309.5998607195919</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.9673024934253</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>53.5892988469418</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.743021135053084</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>53.8285004100398</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27912,7 +27912,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28031,7 +28031,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>162.300823137631</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>345.4863855700677</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>462.9969567069692</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>390.5700052857314</v>
+        <v>285.2574796026367</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>128.29359755675</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>134.9403475485741</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>556.2278131155941</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35105,7 +35105,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404409</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35415,10 +35415,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35427,13 +35427,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>690.7922068925911</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127374</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
@@ -35886,7 +35886,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>324.5260868755248</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>167.4356103012581</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36138,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.5286477120479</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391573</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>86.80031487885682</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,13 +36837,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>699.4275107890124</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36855,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>818.1712833969947</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>690.7922068925909</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>62.48282579338804</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>478.3403640029916</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>726.6390748562006</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
